--- a/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
+++ b/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interfacde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377CD00-6C5F-491D-AA8D-2A1CD8D3F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E4063-19C0-4067-A2AB-0F1F7FF5C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,13 +294,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선점: 비선점 정책</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우선순위 클래스 이름
 criticalPriority|highPriority|
 mediumPriority|lowPriority|veryLowPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선점: 비선점 정책
+PreemptLowerPriority|Never</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,54 +748,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,9 +770,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -819,38 +778,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -859,57 +794,87 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -917,10 +882,49 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,492 +1444,487 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="25.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="16.5">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="5" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="G11" s="17"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="16.5">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:7" ht="14.25" thickBot="1">
-      <c r="G13" s="18"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="22"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="22" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="66" customHeight="1" thickBot="1">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="24"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="44" t="s">
+      <c r="F24" s="33"/>
+      <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="27">
+      <c r="B25" s="11">
         <v>200</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="19">
+      <c r="B26" s="6">
         <v>201</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="19">
+      <c r="B27" s="6">
         <v>300</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="22" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="19">
+      <c r="B28" s="6">
         <v>401</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="19">
+      <c r="B29" s="6">
         <v>404</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="19">
+      <c r="B30" s="6">
         <v>405</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="19">
+      <c r="B31" s="6">
         <v>500</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="19">
+      <c r="B32" s="6">
         <v>501</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="19">
+      <c r="B33" s="6">
         <v>502</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="19">
+      <c r="B34" s="6">
         <v>520</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="19">
+      <c r="B35" s="6">
         <v>521</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="22" t="s">
+      <c r="F35" s="31"/>
+      <c r="G35" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="19">
+      <c r="B36" s="6">
         <v>522</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="22" t="s">
+      <c r="F36" s="31"/>
+      <c r="G36" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B37" s="33">
+      <c r="B37" s="13">
         <v>601</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="24"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="39" spans="2:7" ht="16.5">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="41" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="2:7" ht="102.75" customHeight="1" thickBot="1">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C24:D24"/>
@@ -1937,20 +1936,25 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,421 +1968,421 @@
   <dimension ref="B3:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:F34"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="25.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="16.5">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="5" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="G11" s="17"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="16.5">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:7" ht="14.25" thickBot="1">
-      <c r="G13" s="18"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="22"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="22" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="66" customHeight="1" thickBot="1">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="24"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="44" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="22"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="19"/>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="59" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="19"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="19"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="19"/>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="60" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="48"/>
+      <c r="G32" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="46.5" customHeight="1">
-      <c r="B33" s="19"/>
-      <c r="C33" s="31" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="62" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="2:7" ht="48" customHeight="1">
+      <c r="B34" s="6"/>
+      <c r="C34" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="2:7" ht="48" customHeight="1">
-      <c r="B34" s="19"/>
-      <c r="C34" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="19"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="22"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="38" spans="2:7" ht="16.5">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="40" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="2:7" ht="252" customHeight="1" thickBot="1">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C35:D35"/>
@@ -2389,6 +2393,11 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C28:D28"/>
@@ -2397,16 +2406,11 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
+++ b/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E4063-19C0-4067-A2AB-0F1F7FF5C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF7B28-1EC9-4345-AC20-21CD1EEDF15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="495" windowWidth="38640" windowHeight="21390" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="17" r:id="rId1"/>
     <sheet name="nodeselector" sheetId="18" r:id="rId2"/>
+    <sheet name="selectorComplete" sheetId="19" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">selectorComplete!$A$1:$I$42</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,93 +219,135 @@
     <t>필수값을 체크합니다.</t>
   </si>
   <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청원본 base64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clusterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preemptionPolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클러스터 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 클래스 이름
+criticalPriority|highPriority|
+mediumPriority|lowPriority|veryLowPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선점: 비선점 정책
+PreemptLowerPriority|Never</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/interface/api/v1/do/schedule/nodeselect/complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "message": "success",
+    "result": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ배포완료
+/interface/api/v1/do/schedule/nodeselect 요청을 통해 최종배포한 입력 yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json, yml(인터페이스 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"version" : 0.5,
+"request": {
+  "name": "name"
+  "id": "550e8400-e29b-41d4-a716-446655440000"
+  "date": "yyyy-MM-dd HH:mi:ss"
+  attribute:{
+   "MLWorkloadYaml": "base64encoding yml"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -X POST -H "Content-Type: application/json" -d '{"version" : 0.5,"request": {  "name": "name"  "id": "550e8400-e29b-41d4-a716-446655440000"
+  "date": "yyyy-MM-dd HH:mi:ss"  attribute:{   "MLWorkloadYaml": "base64encoding yml"  } }' https://api.example.com/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "code": 200,
     "message": "success",
     "result": {
-        "id": "lasdjls-asldsl-alsdkjflaskf",
-        "result": {
-            "clusterId": "3",
-            "nodeName": "workload3-node01",
-            "priority": null,
-            "priorityClass": null,
-            "preemptionPolicy": null,
-            "nodeId": "04a83227-ec6b-4736-a1aa-975ffa83f9a1"
-        },
-        "date": "2024-08-21 13:31:06",
-        "originRequest": "dmVyc2lvbjogMC41DQpyZX=="
+        "id": "dmkim",
+        "cluster": "1",
+        "date": "2024-09-05 17:17:59",
+        "containers": [
+            {
+                "name": "zzzzz",
+                "cluster": "1",
+                "node": "gpu-02",
+                "priorityClass": null,
+                "preemptionPolicy": null
+            }
+        ],
+        "originRequest": "ew0KICAidmVyc2lvbiI6ICIwLj..."
     }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>originRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청원본 base64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clusterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priorityClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preemptionPolicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클러스터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노드이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위 값</t>
-  </si>
-  <si>
-    <t>nodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노드ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위 클래스 이름
-criticalPriority|highPriority|
-mediumPriority|lowPriority|veryLowPriority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선점: 비선점 정책
-PreemptLowerPriority|Never</t>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containers[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,15 +856,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -831,51 +926,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,47 +976,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1439,7 +1489,7 @@
   <dimension ref="B3:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1466,63 +1516,63 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="43"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -1580,36 +1630,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1618,12 +1668,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -1641,14 +1691,14 @@
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
@@ -1657,46 +1707,46 @@
       <c r="B25" s="11">
         <v>200</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="6">
         <v>201</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="6">
         <v>300</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1705,128 +1755,128 @@
       <c r="B28" s="6">
         <v>401</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6">
         <v>404</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6">
         <v>405</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="6">
         <v>500</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="6">
         <v>501</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="6">
         <v>502</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6">
         <v>520</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="6">
         <v>521</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="8" t="s">
         <v>25</v>
       </c>
@@ -1835,16 +1885,16 @@
       <c r="B36" s="6">
         <v>522</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="8" t="s">
         <v>25</v>
       </c>
@@ -1853,16 +1903,16 @@
       <c r="B37" s="13">
         <v>601</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="10"/>
     </row>
     <row r="39" spans="2:7" ht="16.5">
@@ -1880,51 +1930,54 @@
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="2:7" ht="102.75" customHeight="1" thickBot="1">
       <c r="B43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C24:D24"/>
@@ -1941,20 +1994,17 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1965,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C28BDF-1C22-4170-93B7-C66F1A06A16F}">
-  <dimension ref="B3:G42"/>
+  <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1995,73 +2045,73 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -2119,36 +2169,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -2157,12 +2207,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="C20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -2177,13 +2227,13 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
@@ -2192,187 +2242,240 @@
       <c r="B25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="34"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="39"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="36"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="30"/>
+        <v>54</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="36"/>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6"/>
-      <c r="C29" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="49"/>
+      <c r="C29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6"/>
-      <c r="C30" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="49"/>
+      <c r="C30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="6"/>
-      <c r="C31" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="49"/>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="6"/>
-      <c r="C32" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="46.5" customHeight="1">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="6"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" ht="48" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="6"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="60"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="38" spans="2:7" ht="16.5">
-      <c r="B38" s="14" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="2:7" ht="46.5" customHeight="1">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:7" ht="48" customHeight="1">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B40" s="13"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="42" spans="2:7" ht="16.5">
+      <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="40" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B40" s="2" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="44" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C44" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="18" t="s">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C45" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="2:7" ht="252" customHeight="1" thickBot="1">
-      <c r="B42" s="20" t="s">
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+    </row>
+    <row r="46" spans="2:7" ht="252" customHeight="1" thickBot="1">
+      <c r="B46" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
+      <c r="C46" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="29">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
@@ -2383,37 +2486,427 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6E977F-EB96-4D8F-919F-B02A236A626C}">
+  <dimension ref="B3:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="16.5">
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="2:7" ht="33" customHeight="1">
+      <c r="B9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5">
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="2:7" ht="14.25" thickBot="1">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="151.5" customHeight="1" thickBot="1">
+      <c r="B20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="22" spans="2:7" ht="16.5">
+      <c r="B22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B24" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="11"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="6"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="6"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="6"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="6"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="6"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7" ht="46.5" customHeight="1">
+      <c r="B33" s="6"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="2:7" ht="48" customHeight="1">
+      <c r="B34" s="6"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="6"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B36" s="13"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="38" spans="2:7" ht="16.5">
+      <c r="B38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="40" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="2:7" ht="42" customHeight="1">
+      <c r="B41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="2:7" ht="252" customHeight="1" thickBot="1">
+      <c r="B42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="41" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
+++ b/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF7B28-1EC9-4345-AC20-21CD1EEDF15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B0171-5CC3-48B6-90A5-785D8F0F3858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="495" windowWidth="38640" windowHeight="21390" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="17" r:id="rId1"/>
-    <sheet name="nodeselector" sheetId="18" r:id="rId2"/>
-    <sheet name="selectorComplete" sheetId="19" r:id="rId3"/>
+    <sheet name="배포노드 요청" sheetId="18" r:id="rId2"/>
+    <sheet name="배포완료 통지" sheetId="19" r:id="rId3"/>
+    <sheet name="워크로드특성요청" sheetId="20" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">selectorComplete!$A$1:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'배포완료 통지'!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,51 +224,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>originRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청원본 base64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clusterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>priorityClass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>preemptionPolicy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클러스터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노드이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노드ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,12 +255,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containers[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonl(인터페이스 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -X POST -H "Content-Type: application/json" -d '{json문자열}' https://api.example.com/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ㅇ배포완료
-/interface/api/v1/do/schedule/nodeselect 요청을 통해 최종배포한 입력 yml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json, yml(인터페이스 참고)</t>
+/interface/api/v1/do/schedule/nodeselect 요청을 통해 최종배포한 입력 json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>curl -X POST -H "Content-Type: application/json" -d '{json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문자열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>}' https://api.example.com/interface/api/v1/do/schedule/nodeselect/complete</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,14 +308,25 @@
   "id": "550e8400-e29b-41d4-a716-446655440000"
   "date": "yyyy-MM-dd HH:mi:ss"
   attribute:{
-   "MLWorkloadYaml": "base64encoding yml"
+   "yaml": "base64encoding yml"
   }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curl -X POST -H "Content-Type: application/json" -d '{"version" : 0.5,"request": {  "name": "name"  "id": "550e8400-e29b-41d4-a716-446655440000"
-  "date": "yyyy-MM-dd HH:mi:ss"  attribute:{   "MLWorkloadYaml": "base64encoding yml"  } }' https://api.example.com/users</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,27 +336,146 @@
     "result": {
         "id": "dmkim",
         "cluster": "1",
-        "date": "2024-09-05 17:17:59",
+        "date": "2024-09-12 13:19:16",
         "containers": [
             {
-                "name": "zzzzz",
-                "cluster": "1",
+                "name": "keti-ml-workload-inference",
+                "node": "gpu-02",
+                "priorityClass": null,
+                "preemptionPolicy": null
+            },
+            {
+                "name": "keti-ml-workload-preprocess",
+                "node": "gpu-02",
+                "priorityClass": null,
+                "preemptionPolicy": null
+            },
+            {
+                "name": "keti-ml-workload-train",
                 "node": "gpu-02",
                 "priorityClass": null,
                 "preemptionPolicy": null
             }
         ],
-        "originRequest": "ew0KICAidmVyc2lvbiI6ICIwLj..."
+        "originRequest": "ew0KICAidmVyc2lvbiI6ICIwL..."
     }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cluster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>containers[]</t>
+    <t>배포완료 통지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크로드 특성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATH변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface/api/v1/config/workloadfeature/{$1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크로드의 특성들을 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workload_feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud_type</t>
+  </si>
+  <si>
+    <t>workload_deployment_stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devOpsType 개발운영 특성(배포요청 특성: devOpsType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>curl -X POST -H "Content-Type: application/json" -d '{json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문자열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>}' https://api.example.com/interface/api/v1/config/workloadfeature/workload_feature</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크로드 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크로드 시나리오 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workload_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +483,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +532,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -434,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -790,11 +934,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,18 +1059,60 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -881,50 +1125,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -962,21 +1178,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="24" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="24" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1221,6 +1451,1254 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E1B585-3A51-7DBE-F4D8-ACA095A6CD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506075" y="733425"/>
+          <a:ext cx="3371850" cy="13354050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>입력샘플</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    "version": "0.12",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    "request": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        "name": "keti-ml-workload-workload-004",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        "id": "dmkim",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        "date": "2024-09-05 11:16:43",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        "containers": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "name": "keti-ml-workload-inference",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "resources": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "requests": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "7",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "700Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "limits": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "10",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "800Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "attribute": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "maxReplicas": 5,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "totalSize": 875,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "predictedExecutionTime": 599</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "name": "keti-ml-workload-preprocess",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "resources": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "requests": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "7",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "800Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "limits": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "9",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "700Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "attribute": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "maxReplicas": 5,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "totalSize": 875,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "predictedExecutionTime": 599</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "name": "keti-ml-workload-train",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "resources": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "requests": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "8",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "700Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "limits": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "10",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "1000Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "attribute": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "maxReplicas": 5,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "totalSize": 875,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "predictedExecutionTime": 599</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        "attribute": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "workloadType": "ML",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "isCronJob": true,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "devOpsType": "DEV",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "cudaVersion": 342.12,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "gpuDriverVersion": 12.34,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "userId": "dmkim",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "yaml": "CmFwa..."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2714626" cy="828676"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E427D1E0-E071-0839-EE37-E589171D8E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506074" y="2533650"/>
+          <a:ext cx="2714626" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>스케줄링정책 인터페이스</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- workload</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_feature </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 특성 사용</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>추후에 나머지 특성은 검토</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8239126" cy="2542043"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2B03F8-1C79-4C23-99C9-F3902693CB9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162174" y="6181725"/>
+          <a:ext cx="8239126" cy="2542043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- workload_feature</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{code:200,message:"success",result:[{level:1,name:"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>운영 효율화 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>프로세스 자동화</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)"},{level:2,name:"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>개발 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>종류별 등록</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)"},{level:3,name:"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>자산 관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>로보 어드바이저</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>및 로그 분석</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"},{level:4,name:"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>고객 서비스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>챗봇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>가상 어시스턴트</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)"},{level:5,name:"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>사기 방지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"},{level:6,name:"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>고객 맞춤형 금융 상품 추천</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"}]}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- cloud_type</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{code:200,message:"success",result:[{level:1,name:"PUB"},{level:2,name:"PRI"},{level:3,name:"ONP"}]}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+            <a:t>- workload_type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{"code":200,"message":"success","result":[{"level":1,"name":"DPP"},{"level":2,"name":"TRA"},{"level":3,"name":"HPT"},{"level":4,"name":"MOE"},{"level":5,"name":"INF"}]}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0"/>
+            <a:t> workload_deployment_stage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{code:200,message:"success",result:[{level:1,name:"DEV"},{level:2,name:"TEST"},{level:3,name:"STG"},{level:4,name:"PROD"}]}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1516,63 +2994,63 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -1630,36 +3108,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -1668,12 +3146,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -1691,14 +3169,14 @@
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
@@ -1707,46 +3185,46 @@
       <c r="B25" s="11">
         <v>200</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="6">
         <v>201</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="35"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="6">
         <v>300</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1755,128 +3233,128 @@
       <c r="B28" s="6">
         <v>401</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6">
         <v>404</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6">
         <v>405</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="6">
         <v>500</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="6">
         <v>501</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="31"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="6">
         <v>502</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6">
         <v>520</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="31"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="6">
         <v>521</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="8" t="s">
         <v>25</v>
       </c>
@@ -1885,16 +3363,16 @@
       <c r="B36" s="6">
         <v>522</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="35"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="8" t="s">
         <v>25</v>
       </c>
@@ -1903,16 +3381,16 @@
       <c r="B37" s="13">
         <v>601</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="10"/>
     </row>
     <row r="39" spans="2:7" ht="16.5">
@@ -1930,40 +3408,72 @@
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="2:7" ht="102.75" customHeight="1" thickBot="1">
       <c r="B43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="C43:G43"/>
@@ -1973,38 +3483,6 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C28BDF-1C22-4170-93B7-C66F1A06A16F}">
-  <dimension ref="B3:G46"/>
+  <dimension ref="B3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2045,73 +3523,73 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -2169,36 +3647,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -2207,12 +3685,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="C20" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -2227,278 +3705,204 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="38"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="51"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="51"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:7" ht="46.5" customHeight="1">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:7" ht="48" customHeight="1">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="6"/>
-      <c r="C33" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="60" t="s">
+    <row r="34" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B34" s="13"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="36" spans="2:7" ht="16.5">
+      <c r="B36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="38" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" ht="46.5" customHeight="1">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="2:7" ht="48" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B40" s="13"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="42" spans="2:7" ht="16.5">
-      <c r="B42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="44" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-    </row>
-    <row r="46" spans="2:7" ht="252" customHeight="1" thickBot="1">
-      <c r="B46" s="20" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="2:7" ht="409.5" customHeight="1" thickBot="1">
+      <c r="B40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
+      <c r="C40" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
+  <mergeCells count="20">
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6E977F-EB96-4D8F-919F-B02A236A626C}">
-  <dimension ref="B3:G42"/>
+  <dimension ref="B3:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2525,73 +3929,73 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="C6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="C7" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -2649,36 +4053,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -2687,12 +4091,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -2707,162 +4111,87 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="38"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="11"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="6"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="6"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" ht="46.5" customHeight="1">
-      <c r="B33" s="6"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" ht="48" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="6"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="38" spans="2:7" ht="16.5">
-      <c r="B38" s="14" t="s">
+    <row r="26" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B26" s="13"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.5">
+      <c r="B28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="40" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B40" s="2" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="30" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="2:7" ht="42" customHeight="1">
-      <c r="B41" s="18" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="2:7" ht="42" customHeight="1">
+      <c r="B31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="2:7" ht="252" customHeight="1" thickBot="1">
-      <c r="B42" s="20" t="s">
+      <c r="C31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="2:7" ht="98.25" customHeight="1" thickBot="1">
+      <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
+      <c r="C32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="18">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C5:G5"/>
@@ -2876,31 +4205,6 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2909,4 +4213,330 @@
     <brk id="9" max="41" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C831B21-F9A0-4151-83A8-ECC2B21577B7}">
+  <dimension ref="B3:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="25.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="16.5">
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7" ht="33" customHeight="1">
+      <c r="B9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" ht="14.25" thickBot="1">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="76">
+        <v>1</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="76"/>
+      <c r="C15" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="76"/>
+      <c r="C16" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B17" s="77"/>
+      <c r="C17" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" s="67"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5">
+      <c r="B19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="21" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="6"/>
+      <c r="C23" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="6"/>
+      <c r="C24" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B25" s="13"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.5">
+      <c r="B27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="29" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="2:7" ht="42" customHeight="1">
+      <c r="B30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="2:7" ht="210.75" customHeight="1" thickBot="1">
+      <c r="B31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
+++ b/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B0171-5CC3-48B6-90A5-785D8F0F3858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B9405D-3725-4938-A7F0-6974579EFE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="330" windowWidth="38640" windowHeight="21390" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33480" yWindow="2910" windowWidth="28800" windowHeight="15555" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>containers[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsonl(인터페이스 참고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,18 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PATH변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface/api/v1/config/workloadfeature/{$1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,37 +384,6 @@
   </si>
   <si>
     <t>배열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워크로드의 특성들을 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workload_feature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud_type</t>
-  </si>
-  <si>
-    <t>workload_deployment_stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>devOpsType 개발운영 특성(배포요청 특성: devOpsType)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,23 +412,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라우드 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워크로드 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워크로드 시나리오 특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workload_type</t>
+    <t>interface/api/v1/config/workloadfeature/workload_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크로드의 특성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json(인터페이스 참고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -947,56 +892,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,12 +959,58 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="24" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1077,57 +1023,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,74 +1076,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="24" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="24" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="24" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="24" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="24" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="24" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,8 +1542,159 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "predictedExecutionTime": 599,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "order":1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "name": "keti-ml-workload-preprocess",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "resources": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "requests": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "7",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "800Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "limits": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "cpu": "9",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "700Mi"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                "attribute": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "maxReplicas": 5,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    "totalSize": 875,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>                    "predictedExecutionTime": 599</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"order":2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1688,7 +1717,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                "name": "keti-ml-workload-preprocess",</a:t>
+            <a:t>                "name": "keti-ml-workload-train",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1706,13 +1735,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "cpu": "7",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "memory": "800Mi"</a:t>
+            <a:t>                        "cpu": "8",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "700Mi"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1730,13 +1759,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "cpu": "9",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "memory": "700Mi"</a:t>
+            <a:t>                        "cpu": "10",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                        "memory": "1000Mi"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1776,6 +1805,42 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>                    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"order":3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>                }</a:t>
@@ -1784,114 +1849,6 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>            },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>            {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                "name": "keti-ml-workload-train",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                "resources": {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    "requests": {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "cpu": "8",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "memory": "700Mi"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    "limits": {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "cpu": "10",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                        "memory": "1000Mi"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                "attribute": {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    "maxReplicas": 5,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    "totalSize": 875,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                    "predictedExecutionTime": 599</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>                }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>            }</a:t>
           </a:r>
         </a:p>
@@ -1941,6 +1898,18 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>            "userId": "dmkim",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "workloadFeature":"1",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>            "checkpoint": FALSE,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1979,167 +1948,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2714626" cy="828676"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E427D1E0-E071-0839-EE37-E589171D8E2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10506074" y="2533650"/>
-          <a:ext cx="2714626" cy="828676"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>스케줄링정책 인터페이스</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- workload</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>_feature </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 특성 사용</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>추후에 나머지 특성은 검토</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1000" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8239126" cy="2542043"/>
+    <xdr:ext cx="8239126" cy="2533649"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
@@ -2153,8 +1967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162174" y="6181725"/>
-          <a:ext cx="8239126" cy="2542043"/>
+          <a:off x="2162174" y="5133976"/>
+          <a:ext cx="8239126" cy="2533649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,12 +2001,12 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2201,29 +2015,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- workload_feature</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:t>{"code":200,"message":"success","result":[{"name":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2232,10 +2027,118 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{code:200,message:"success",result:[{level:1,name:"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+            <a:t>고객 서비스 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>챗봇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>가상 어시스턴트</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)","id":"1"},{"name":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>사기 방지</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>","id":"2"},{"name":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>고객 맞춤형 금융 상품 추천</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>","id":"3"},{"name":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2247,7 +2150,7 @@
             <a:t>운영 효율화 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2259,7 +2162,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2271,7 +2174,7 @@
             <a:t>프로세스 자동화</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2280,10 +2183,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)"},{level:2,name:"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+            <a:t>)","id":"4"},{"name":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2292,10 +2195,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>개발 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:t>자산 관리 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2307,55 +2210,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>종류별 등록</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)"},{level:3,name:"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>자산 관리 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2367,7 +2222,7 @@
             <a:t>로보 어드바이저</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2379,7 +2234,7 @@
             <a:t>) </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2391,7 +2246,7 @@
             <a:t>및 로그 분석</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2400,305 +2255,14 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>"},{level:4,name:"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>고객 서비스 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>챗봇</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>가상 어시스턴트</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)"},{level:5,name:"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>사기 방지</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"},{level:6,name:"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>고객 맞춤형 금융 상품 추천</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"}]}</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- cloud_type</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{code:200,message:"success",result:[{level:1,name:"PUB"},{level:2,name:"PRI"},{level:3,name:"ONP"}]}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
-            <a:t>- workload_type</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{"code":200,"message":"success","result":[{"level":1,"name":"DPP"},{"level":2,"name":"TRA"},{"level":3,"name":"HPT"},{"level":4,"name":"MOE"},{"level":5,"name":"INF"}]}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0"/>
-            <a:t> workload_deployment_stage</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>{code:200,message:"success",result:[{level:1,name:"DEV"},{level:2,name:"TEST"},{level:3,name:"STG"},{level:4,name:"PROD"}]}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>","id":"5"}]}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2994,63 +2558,63 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -3108,36 +2672,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -3146,12 +2710,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -3169,14 +2733,14 @@
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="35"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
@@ -3185,46 +2749,46 @@
       <c r="B25" s="11">
         <v>200</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="6">
         <v>201</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="6">
         <v>300</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="8" t="s">
         <v>25</v>
       </c>
@@ -3233,128 +2797,128 @@
       <c r="B28" s="6">
         <v>401</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6">
         <v>404</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6">
         <v>405</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="6">
         <v>500</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="6">
         <v>501</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="6">
         <v>502</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="31"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6">
         <v>520</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="31"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="6">
         <v>521</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="31"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="8" t="s">
         <v>25</v>
       </c>
@@ -3363,16 +2927,16 @@
       <c r="B36" s="6">
         <v>522</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="8" t="s">
         <v>25</v>
       </c>
@@ -3381,16 +2945,16 @@
       <c r="B37" s="13">
         <v>601</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="10"/>
     </row>
     <row r="39" spans="2:7" ht="16.5">
@@ -3408,46 +2972,59 @@
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" spans="2:7" ht="102.75" customHeight="1" thickBot="1">
       <c r="B43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
@@ -3464,25 +3041,12 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3495,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C28BDF-1C22-4170-93B7-C66F1A06A16F}">
   <dimension ref="B3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3523,73 +3087,73 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -3647,36 +3211,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -3685,12 +3249,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -3705,13 +3269,13 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
@@ -3759,25 +3323,25 @@
     <row r="29" spans="2:7">
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="51"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="51"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" ht="46.5" customHeight="1">
@@ -3786,10 +3350,10 @@
         <v>54</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" ht="48" customHeight="1">
@@ -3798,26 +3362,26 @@
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="51"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" ht="14.25" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="10"/>
     </row>
     <row r="36" spans="2:7" ht="16.5">
@@ -3835,46 +3399,47 @@
       <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
+      <c r="C39" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="2:7" ht="409.5" customHeight="1" thickBot="1">
       <c r="B40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
+      <c r="C40" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
@@ -3882,13 +3447,12 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3929,73 +3493,73 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -4053,36 +3617,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -4091,12 +3655,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -4111,31 +3675,31 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="11"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" thickBot="1">
       <c r="B26" s="13"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="10"/>
     </row>
     <row r="28" spans="2:7" ht="16.5">
@@ -4153,45 +3717,40 @@
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="2:7" ht="42" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:7" ht="98.25" customHeight="1" thickBot="1">
       <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C5:G5"/>
@@ -4205,6 +3764,11 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4217,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C831B21-F9A0-4151-83A8-ECC2B21577B7}">
-  <dimension ref="B3:G31"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4247,292 +3811,210 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" ht="14.25" thickBot="1">
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="73" t="s">
+    <row r="12" spans="2:7">
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5">
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="15" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B15" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="76">
-        <v>1</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="76"/>
-      <c r="C15" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="76"/>
-      <c r="C16" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="71" t="s">
-        <v>25</v>
-      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="C18" s="67"/>
-    </row>
-    <row r="19" spans="2:7" ht="16.5">
-      <c r="B19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="21" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B21" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="6"/>
-      <c r="C24" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="30" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B19" s="13"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="21" spans="2:7" ht="16.5">
+      <c r="B21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="23" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="2:7" ht="42" customHeight="1">
+      <c r="B24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="27" spans="2:7" ht="16.5">
-      <c r="B27" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="29" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="2:7" ht="42" customHeight="1">
-      <c r="B30" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="2:7" ht="210.75" customHeight="1" thickBot="1">
-      <c r="B31" s="20" t="s">
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+    </row>
+    <row r="25" spans="2:7" ht="210.75" customHeight="1" thickBot="1">
+      <c r="B25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
+  <mergeCells count="18">
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
+++ b/HybridDeployOptimizer/doc/interface/API-인터페이스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\project_hybrid_cloud\workspace_public_git\HybridDeployOptimizer\doc\interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B9405D-3725-4938-A7F0-6974579EFE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D3BBC-04C5-4F73-9509-D35A0E5BE703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33480" yWindow="2910" windowWidth="28800" windowHeight="15555" tabRatio="789" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31485" yWindow="4560" windowWidth="28800" windowHeight="15555" tabRatio="789" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="17" r:id="rId1"/>
@@ -387,18 +387,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>워크로드의 특성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json(인터페이스 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/interface/api/v1/config/features/workload_feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>curl -X POST -H "Content-Type: application/json" -d '{json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문자열</t>
+      <t>curl -X GET -H "Content-Type: application/json" http://hybrid.strato.co.kr:30008</t>
     </r>
     <r>
       <rPr>
@@ -407,20 +409,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>}' https://api.example.com/interface/api/v1/config/workloadfeature/workload_feature</t>
+      <t>/interface/api/v1/config/features/workload_feature</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface/api/v1/config/workloadfeature/workload_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워크로드의 특성 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json(인터페이스 참고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,18 +950,60 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="24" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -984,88 +1016,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,6 +1031,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2015,7 +2005,63 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{"code":200,"message":"success","result":[{"name":"</a:t>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "code": 200,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "message": "success",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "result": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {            "name": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
@@ -2087,7 +2133,45 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)","id":"1"},{"name":"</a:t>
+            <a:t>)",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"id": "1"        },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {            "name": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
@@ -2111,7 +2195,45 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>","id":"2"},{"name":"</a:t>
+            <a:t>",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"id": "2"        },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {            "name": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
@@ -2135,7 +2257,45 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>","id":"3"},{"name":"</a:t>
+            <a:t>",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"id": "3"        },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {            "name": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
@@ -2183,7 +2343,45 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)","id":"4"},{"name":"</a:t>
+            <a:t>)",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"id": "4"        },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        {            "name": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
@@ -2255,7 +2453,59 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>","id":"5"}]}</a:t>
+            <a:t>",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"id": "5"        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2558,63 +2808,63 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -2672,36 +2922,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -2710,12 +2960,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -2733,14 +2983,14 @@
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
@@ -2749,46 +2999,46 @@
       <c r="B25" s="11">
         <v>200</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="6">
         <v>201</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="6">
         <v>300</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2797,128 +3047,128 @@
       <c r="B28" s="6">
         <v>401</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="6">
         <v>404</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="6">
         <v>405</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="6">
         <v>500</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="6">
         <v>501</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="6">
         <v>502</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="6">
         <v>520</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="6">
         <v>521</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="8" t="s">
         <v>25</v>
       </c>
@@ -2927,16 +3177,16 @@
       <c r="B36" s="6">
         <v>522</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="8" t="s">
         <v>25</v>
       </c>
@@ -2945,16 +3195,16 @@
       <c r="B37" s="13">
         <v>601</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="10"/>
     </row>
     <row r="39" spans="2:7" ht="16.5">
@@ -2972,53 +3222,57 @@
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:7" ht="102.75" customHeight="1" thickBot="1">
       <c r="B43" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
@@ -3028,25 +3282,21 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3059,7 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C28BDF-1C22-4170-93B7-C66F1A06A16F}">
   <dimension ref="B3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -3087,73 +3337,73 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -3211,36 +3461,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -3249,12 +3499,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -3269,13 +3519,13 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
@@ -3326,10 +3576,10 @@
         <v>66</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="60"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7">
@@ -3338,10 +3588,10 @@
         <v>68</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:7" ht="46.5" customHeight="1">
@@ -3350,10 +3600,10 @@
         <v>54</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:7" ht="48" customHeight="1">
@@ -3362,26 +3612,26 @@
         <v>55</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7" ht="14.25" thickBot="1">
       <c r="B34" s="13"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="10"/>
     </row>
     <row r="36" spans="2:7" ht="16.5">
@@ -3399,40 +3649,50 @@
       <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="2:7" ht="409.5" customHeight="1" thickBot="1">
       <c r="B40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
@@ -3443,16 +3703,6 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3493,73 +3743,73 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -3617,36 +3867,36 @@
       <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
@@ -3655,12 +3905,12 @@
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="16.5">
@@ -3675,31 +3925,31 @@
     </row>
     <row r="23" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="11"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" thickBot="1">
       <c r="B26" s="13"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="10"/>
     </row>
     <row r="28" spans="2:7" ht="16.5">
@@ -3717,40 +3967,45 @@
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="2:7" ht="42" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="2:7" ht="98.25" customHeight="1" thickBot="1">
       <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C5:G5"/>
@@ -3764,11 +4019,6 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3783,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C831B21-F9A0-4151-83A8-ECC2B21577B7}">
   <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3811,71 +4061,71 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="33" customHeight="1">
       <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="24" customHeight="1" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7">
       <c r="G11" s="4"/>
@@ -3895,13 +4145,13 @@
     </row>
     <row r="14" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="15" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="21" t="s">
         <v>43</v>
       </c>
@@ -3910,44 +4160,44 @@
       <c r="B16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="6"/>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="63" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="66"/>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="6"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="63" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="66"/>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" thickBot="1">
       <c r="B19" s="13"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="10"/>
     </row>
     <row r="21" spans="2:7" ht="16.5">
@@ -3965,38 +4215,49 @@
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="2:7" ht="42" customHeight="1">
       <c r="B24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
+      <c r="C24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7" ht="210.75" customHeight="1" thickBot="1">
       <c r="B25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -4004,17 +4265,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
